--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_S_(ADNmt)/Haplogroupe_S_(ADNmt).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_S_(ADNmt)/Haplogroupe_S_(ADNmt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'haplogroupe S est un haplogroupe de l'ADN mitochondrial humain (ADNmt). Il est défini par la mutation T8404C[1]. Il est issu de l'haplogroupe N.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe S est un haplogroupe de l'ADN mitochondrial humain (ADNmt). Il est défini par la mutation T8404C. Il est issu de l'haplogroupe N.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dernières estimations situent le dernier ancêtre commun de l'haplogroupe S il y a 49 000 à 51 000 ans[2], c'est-à-dire lors de l'arrivée estimée de l'Homme moderne en Australie. Cet haplogroupe comprend cinq branches principales : S1, S2, S3, S4 et S5.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dernières estimations situent le dernier ancêtre commun de l'haplogroupe S il y a 49 000 à 51 000 ans, c'est-à-dire lors de l'arrivée estimée de l'Homme moderne en Australie. Cet haplogroupe comprend cinq branches principales : S1, S2, S3, S4 et S5.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'haplogroupe S n'a été trouvé que chez les Aborigènes d'Australie. Parmi les populations actuelles, des porteurs de cet haplogroupe ont été trouvés en Tasmanie, en Nouvelle-Galles du Sud, dans le Victoria, le Queensland, le Territoire du Nord, et en Australie-Occidentale[3].
-Deux individus anciens porteurs de l'haplogroupe S2b1a1 ont été trouvés à Barham, en Nouvelle-Galles du Sud[4],[5],[6]. Un individu ancien qui appartenait à l'haplogroupe S2b1c a été trouvé dans la région des lacs Willandra, en Nouvelle-Galles du Sud[7],[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe S n'a été trouvé que chez les Aborigènes d'Australie. Parmi les populations actuelles, des porteurs de cet haplogroupe ont été trouvés en Tasmanie, en Nouvelle-Galles du Sud, dans le Victoria, le Queensland, le Territoire du Nord, et en Australie-Occidentale.
+Deux individus anciens porteurs de l'haplogroupe S2b1a1 ont été trouvés à Barham, en Nouvelle-Galles du Sud. Un individu ancien qui appartenait à l'haplogroupe S2b1c a été trouvé dans la région des lacs Willandra, en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
